--- a/WD/graphy.xlsx
+++ b/WD/graphy.xlsx
@@ -8,36 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\Beans\WD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE12CC79-1088-41AD-945A-6468055C13AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBEAF79-863A-4229-9946-B06AA7786DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07369371-4430-4C5F-B5CA-1BF03DBBB731}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$3:$B$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$3:$D$18</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$E$3:$E$18</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$3:$B$18</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$3:$C$18</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$3:$D$18</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$3:$C$18</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$E$3:$E$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$3:$D$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$3:$E$18</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$B$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$3:$C$18</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -120,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +105,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -161,14 +150,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1825,7 +1817,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,58 +2007,58 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>-0.22131890000000001</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>-0.33254850000000002</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-3.2622930000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>-0.31462458999999998</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.12941920000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>0.12007667</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>-0.23898330000000001</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.32752170000000003</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>0.14957023999999999</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>-0.19800942999999999</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.1000611</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>-0.53690305999999999</v>
       </c>
     </row>
